--- a/hebrewOutputs/hebrew82Comperation_13_Common_alpha=0.34.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_13_Common_alpha=0.34.xlsx
@@ -61,6 +61,9 @@
     <t xml:space="preserve">מיכאל. </t>
   </si>
   <si>
+    <t>gives-other</t>
+  </si>
+  <si>
     <t>נעים מאד.</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>bc</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>לקחתי אותו לרופא למשפחה...</t>
   </si>
   <si>
@@ -181,9 +187,6 @@
     <t>הוא אכל הרבה מאד מתוק אתמול יכול להיות בגלל זה רמות של הסוכר בדם קצת גבוהות</t>
   </si>
   <si>
-    <t>gives-other</t>
-  </si>
-  <si>
     <t xml:space="preserve">אבל תשמע נראה לי שיש לכם פה איזשהו טעות. </t>
   </si>
   <si>
@@ -209,9 +212,6 @@
   </si>
   <si>
     <t xml:space="preserve">כן (לא נשמע) אני מסכים. תיקח את הילד תבדוק אותו אא </t>
-  </si>
-  <si>
-    <t>agree</t>
   </si>
   <si>
     <t>היום המצבים של הסכרת נעורים לא יודע אם יש לכם מודעת עכשיו כאילו צריכים לטפל בילד יותר, לשמור על הדיאטה שלו אא לשמור על ה... על ה...</t>
@@ -804,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -874,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -882,13 +882,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -896,7 +896,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -910,13 +910,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -924,13 +924,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -938,10 +938,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -952,13 +952,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -966,10 +966,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -994,13 +994,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1008,10 +1008,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1036,10 +1036,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1050,13 +1050,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1078,10 +1078,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1190,13 +1190,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1218,13 +1218,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1260,13 +1260,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -1274,13 +1274,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1288,13 +1288,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -1302,10 +1302,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1316,13 +1316,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1330,13 +1330,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1344,13 +1344,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1372,10 +1372,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1431,7 +1431,7 @@
         <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1459,7 +1459,7 @@
         <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1473,7 +1473,7 @@
         <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1501,7 +1501,7 @@
         <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1515,7 +1515,7 @@
         <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1529,10 +1529,10 @@
         <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -1543,10 +1543,10 @@
         <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -1557,7 +1557,7 @@
         <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1571,7 +1571,7 @@
         <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -1585,7 +1585,7 @@
         <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1599,7 +1599,7 @@
         <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -1613,7 +1613,7 @@
         <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1627,7 +1627,7 @@
         <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1641,7 +1641,7 @@
         <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -1655,10 +1655,10 @@
         <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -1669,10 +1669,10 @@
         <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -1683,7 +1683,7 @@
         <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1697,7 +1697,7 @@
         <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1711,7 +1711,7 @@
         <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -1767,7 +1767,7 @@
         <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1781,7 +1781,7 @@
         <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -1826,7 +1826,7 @@
         <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -1854,7 +1854,7 @@
         <v>104</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1868,7 +1868,7 @@
         <v>67</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -1893,7 +1893,7 @@
         <v>107</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -1907,7 +1907,7 @@
         <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -1921,10 +1921,10 @@
         <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
@@ -1949,10 +1949,10 @@
         <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -1963,7 +1963,7 @@
         <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -1991,7 +1991,7 @@
         <v>114</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -2005,10 +2005,10 @@
         <v>115</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -2019,10 +2019,10 @@
         <v>116</v>
       </c>
       <c r="B90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
@@ -2033,7 +2033,7 @@
         <v>117</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -2047,7 +2047,7 @@
         <v>118</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2078,7 +2078,7 @@
         <v>67</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2148,7 +2148,7 @@
         <v>92</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D99" t="s">
         <v>9</v>
@@ -2173,7 +2173,7 @@
         <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C101" t="s">
         <v>92</v>
@@ -2229,7 +2229,7 @@
         <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2243,7 +2243,7 @@
         <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
@@ -2257,7 +2257,7 @@
         <v>134</v>
       </c>
       <c r="B107" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
         <v>92</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
@@ -2288,7 +2288,7 @@
         <v>92</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -2299,10 +2299,10 @@
         <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -2313,10 +2313,10 @@
         <v>137</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
